--- a/Nettoyage.xlsx
+++ b/Nettoyage.xlsx
@@ -247,11 +247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136581632"/>
-        <c:axId val="136581056"/>
+        <c:axId val="35206208"/>
+        <c:axId val="35206784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136581632"/>
+        <c:axId val="35206208"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -298,7 +298,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="136581056"/>
+        <c:crossAx val="35206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -306,7 +306,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136581056"/>
+        <c:axId val="35206784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -336,7 +336,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136581632"/>
+        <c:crossAx val="35206208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -474,11 +474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135460352"/>
-        <c:axId val="610887936"/>
+        <c:axId val="133355520"/>
+        <c:axId val="35208512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135460352"/>
+        <c:axId val="133355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +488,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610887936"/>
+        <c:crossAx val="35208512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -496,7 +496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="610887936"/>
+        <c:axId val="35208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135460352"/>
+        <c:crossAx val="133355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -673,11 +673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142325952"/>
-        <c:axId val="142325376"/>
+        <c:axId val="135046272"/>
+        <c:axId val="135046848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142325952"/>
+        <c:axId val="135046272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,12 +686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142325376"/>
+        <c:crossAx val="135046848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142325376"/>
+        <c:axId val="135046848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142325952"/>
+        <c:crossAx val="135046272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,15 +796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2207559</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:colOff>2554942</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>717177</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1325,7 @@
         <v>251045914</v>
       </c>
       <c r="H10">
-        <f>100-I10</f>
+        <f t="shared" ref="H10:H15" si="0">100-I10</f>
         <v>21.5</v>
       </c>
       <c r="I10">
@@ -1346,11 +1346,11 @@
         <v>44</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G15" si="0">C11*E11</f>
+        <f t="shared" ref="G11:G15" si="1">C11*E11</f>
         <v>61027736</v>
       </c>
       <c r="H11">
-        <f>100-I11</f>
+        <f t="shared" si="0"/>
         <v>50.6</v>
       </c>
       <c r="I11">
@@ -1371,11 +1371,11 @@
         <v>47</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>65188718</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>65188718</v>
-      </c>
-      <c r="H12">
-        <f>100-I12</f>
         <v>63</v>
       </c>
       <c r="I12">
@@ -1396,11 +1396,11 @@
         <v>47</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>65162069</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>65162069</v>
-      </c>
-      <c r="H13">
-        <f>100-I13</f>
         <v>63</v>
       </c>
       <c r="I13">
@@ -1421,11 +1421,11 @@
         <v>46</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>25943540</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>25943540</v>
-      </c>
-      <c r="H14">
-        <f>100-I14</f>
         <v>79.7</v>
       </c>
       <c r="I14">
@@ -1446,11 +1446,11 @@
         <v>46</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>25943540</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>25943540</v>
-      </c>
-      <c r="H15">
-        <f>100-I15</f>
         <v>100</v>
       </c>
       <c r="I15">

--- a/Nettoyage.xlsx
+++ b/Nettoyage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Lignes</t>
   </si>
@@ -45,18 +45,6 @@
     <t>5.</t>
   </si>
   <si>
-    <t>Elimination des colonnes vides, non pertinentes ou redondantes</t>
-  </si>
-  <si>
-    <t>Gestion des valeurs erronées ou manquantes</t>
-  </si>
-  <si>
-    <t>Doublons</t>
-  </si>
-  <si>
-    <t>Elimination des produits non identifiables</t>
-  </si>
-  <si>
     <t>% nuls</t>
   </si>
   <si>
@@ -66,13 +54,40 @@
     <t>Imputation de valeurs manquantes</t>
   </si>
   <si>
-    <t>lignes modifiées</t>
-  </si>
-  <si>
     <t>colonnes modifiées</t>
   </si>
   <si>
     <t>cellules</t>
+  </si>
+  <si>
+    <t>Sélection des variables</t>
+  </si>
+  <si>
+    <t>Gestion des valeurs aberrantes</t>
+  </si>
+  <si>
+    <t>Gestion des doublons</t>
+  </si>
+  <si>
+    <t>Elimination des non utilisables</t>
+  </si>
+  <si>
+    <t>0.  Importation</t>
+  </si>
+  <si>
+    <t>1.  Sélection des variables</t>
+  </si>
+  <si>
+    <t>2.  Gestion des valeurs aberrantes</t>
+  </si>
+  <si>
+    <t>3.  Gestion des doublons</t>
+  </si>
+  <si>
+    <t>4.  Elimination des non utilisables</t>
+  </si>
+  <si>
+    <t>5.  Imputation de valeurs manquantes</t>
   </si>
 </sst>
 </file>
@@ -119,8 +134,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
       <color rgb="FFDDD9C3"/>
-      <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -152,92 +167,107 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9266473269788649E-2"/>
-          <c:y val="0.21843499852974807"/>
-          <c:w val="0.73736361902130654"/>
-          <c:h val="0.68849783818516463"/>
+          <c:x val="0.36449425729356366"/>
+          <c:y val="6.6430714868795732E-2"/>
+          <c:w val="0.61091464904070558"/>
+          <c:h val="0.63710745688136716"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="0000CC"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000CC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="0000CC"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$C$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$10:$C$15</c:f>
+              <c:f>Feuil1!$I$10:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1386994</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1386994</c:v>
+                  <c:v>50.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1386994</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1386427</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>563990</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563990</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$E$10:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -247,18 +277,38 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35206208"/>
-        <c:axId val="35206784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="35206208"/>
+        <c:gapWidth val="60"/>
+        <c:overlap val="-11"/>
+        <c:axId val="640604160"/>
+        <c:axId val="641533056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="640604160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="641533056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641533056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -270,101 +320,57 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Lignes (10</a:t>
+                  <a:t>valeurs renseignées (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="30000"/>
-                  <a:t>6</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.6061653377059647"/>
+              <c:y val="0.85386935359795235"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="35206784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-        </c:dispUnits>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="35206784"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Colonnes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35206208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="640604160"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.60061492313460818"/>
-          <c:y val="0.75840864290303966"/>
-          <c:w val="0.1851134397673975"/>
-          <c:h val="0.10004378083444963"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -382,26 +388,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12936672389635506"/>
-          <c:y val="0.16864246740941616"/>
-          <c:w val="0.73736361902130654"/>
-          <c:h val="0.68849783818516463"/>
+          <c:x val="0.11582022619916571"/>
+          <c:y val="8.2342696828199877E-2"/>
+          <c:w val="0.81300154850131201"/>
+          <c:h val="0.63139904109544942"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>lignes</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:solidFill>
@@ -409,10 +417,49 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$10:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$10:$C$15</c:f>
+              <c:f>Feuil1!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -436,34 +483,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$G$10:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>251045914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61027736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65188718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65162069</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25943540</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25943540</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -473,35 +494,117 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="133355520"/>
-        <c:axId val="35208512"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="640604672"/>
+        <c:axId val="641534784"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>colonnes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$10:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="640605696"/>
+        <c:axId val="641535360"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="133355520"/>
+        <c:axId val="640604672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35208512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="35208512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -513,27 +616,112 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>valeurs</a:t>
+                  <a:t>Etape du nettoyage</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> renseignées (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41052953914127616"/>
+              <c:y val="0.86551876570593744"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133355520"/>
+        <c:crossAx val="641534784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641534784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640604672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="641535360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640605696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="640605696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="641535360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -541,18 +729,44 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72759905011873516"/>
-          <c:y val="0.1000407314230949"/>
-          <c:w val="0.14166145086770013"/>
-          <c:h val="0.10004378083444963"/>
+          <c:x val="0.73202893479105002"/>
+          <c:y val="8.2803611324880788E-2"/>
+          <c:w val="0.1990236130466875"/>
+          <c:h val="0.20902058429422352"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -582,14 +796,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14684318603980931"/>
-          <c:y val="6.1680637934979028E-2"/>
-          <c:w val="0.77048039150073988"/>
-          <c:h val="0.79914356992844715"/>
+          <c:x val="0.23127088736424661"/>
+          <c:y val="2.2523913043478262E-2"/>
+          <c:w val="0.53510466725191685"/>
+          <c:h val="0.53937004830917878"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -597,72 +811,119 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="0000CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
             <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="0000CC"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Feuil1!$A$10:$A$15</c:f>
-              <c:strCache>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$D$15</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.  Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.  Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.  Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.  Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.  Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.  Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$10:$G$15</c:f>
+              <c:f>Feuil1!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>251045914</c:v>
+                  <c:v>1386994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61027736</c:v>
+                  <c:v>1386994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65188718</c:v>
+                  <c:v>1386994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65162069</c:v>
+                  <c:v>1386427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25943540</c:v>
+                  <c:v>563990</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25943540</c:v>
+                  <c:v>563990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -673,54 +934,1525 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135046272"/>
-        <c:axId val="135046848"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="135046272"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="168079360"/>
+        <c:axId val="144670016"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$D$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.  Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.  Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.  Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.  Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.  Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.  Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="640605184"/>
+        <c:axId val="166986304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="168079360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135046848"/>
+        <c:crossAx val="144670016"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="135046848"/>
+        <c:axId val="144670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:srgbClr val="0000CC"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:srgbClr val="0000CC"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nombre de lignes (millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.9215674165300552E-3"/>
+              <c:y val="0.13423768115942028"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135046272"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168079360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="166986304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nombre de colonnes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.86890200126540029"/>
+              <c:y val="0.17078478260869565"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640605184"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="640605184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166986304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36449425729356366"/>
+          <c:y val="6.6430714868795732E-2"/>
+          <c:w val="0.61091464904070558"/>
+          <c:h val="0.63710745688136716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$10:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.  Importation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.  Sélection des variables</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.  Gestion des valeurs aberrantes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.  Gestion des doublons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.  Elimination des non utilisables</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.  Imputation de valeurs manquantes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="60"/>
+        <c:overlap val="-11"/>
+        <c:axId val="611001344"/>
+        <c:axId val="145315456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="611001344"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145315456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="145315456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>valeurs renseignées (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.6061653377059647"/>
+              <c:y val="0.85386935359795235"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="611001344"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.53341298160655881"/>
+          <c:y val="0.23261203703703703"/>
+          <c:w val="0.42927749154969747"/>
+          <c:h val="0.52735432098765445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$C$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="60"/>
+        <c:overlap val="-11"/>
+        <c:axId val="611003392"/>
+        <c:axId val="680646848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="611003392"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="680646848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680646848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>valeurs renseignées (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.6061653377059647"/>
+              <c:y val="0.85386935359795235"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="611003392"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23127088736424661"/>
+          <c:y val="2.2523913043478262E-2"/>
+          <c:w val="0.53510466725191685"/>
+          <c:h val="0.88346189614350845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$D$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.  Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.  Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.  Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.  Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.  Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.  Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1386994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1386994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1386994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1386427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="681261568"/>
+        <c:axId val="685572672"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$D$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.  Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.  Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.  Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.  Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.  Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.  Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="681689600"/>
+        <c:axId val="685573248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="681261568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="685572672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685572672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:srgbClr val="0000CC"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:srgbClr val="0000CC"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nombre de lignes (millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1764702249590165E-2"/>
+              <c:y val="0.25147121355109303"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681261568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="500000"/>
+        <c:minorUnit val="100000"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="685573248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nombre de colonnes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8610588664323402"/>
+              <c:y val="0.33042190533521748"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681689600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="681689600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="685573248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63745638308847175"/>
+          <c:y val="0.23653179012345679"/>
+          <c:w val="0.32523409006778448"/>
+          <c:h val="0.52735432098765445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil1!$B$10:$C$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Importation</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sélection des variables</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gestion des valeurs aberrantes</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gestion des doublons</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Elimination des non utilisables</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Imputation de valeurs manquantes</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="60"/>
+        <c:overlap val="-11"/>
+        <c:axId val="654949376"/>
+        <c:axId val="638155520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="654949376"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="638155520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638155520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>valeurs renseignées (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.65048016530430197"/>
+              <c:y val="0.86170895061728392"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="654949376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -733,21 +2465,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>715204</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187218</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585228</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>705679</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6243</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>483228</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -763,20 +2497,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126065</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605516</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173689</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -795,21 +2529,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2554942</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>880134</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>717177</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>689635</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>87575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -823,164 +2559,135 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>731693</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>629693</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>693965</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250552</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113806</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>305544</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>111331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Graphique 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Graphique 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.55197</cdr:x>
-      <cdr:y>0.21697</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.82324</cdr:x>
-      <cdr:y>0.37597</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Rectangle 2"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2097984" y="498060"/>
-          <a:ext cx="1031062" cy="364989"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="DDD9C3">
-            <a:alpha val="23137"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="6350">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,190 +2977,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:I15"/>
+  <dimension ref="A7:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E10">
+        <v>1386994</v>
+      </c>
+      <c r="F10">
+        <v>181</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H15" si="0">E10*F10</f>
+        <v>251045914</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I15" si="1">100-J10</f>
+        <v>21.5</v>
+      </c>
+      <c r="J10">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
         <v>1386994</v>
       </c>
-      <c r="E10">
-        <v>181</v>
-      </c>
-      <c r="G10">
-        <f>C10*E10</f>
-        <v>251045914</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H15" si="0">100-I10</f>
-        <v>21.5</v>
-      </c>
-      <c r="I10">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1386994</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
         <v>44</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G15" si="1">C11*E11</f>
-        <v>61027736</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
+        <v>61027736</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
         <v>50.6</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>49.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
         <v>1386994</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>47</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>65188718</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
+        <v>65188718</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
         <v>1386427</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>47</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>65162069</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
+        <v>65162069</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
         <v>563990</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>46</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>25943540</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
+        <v>25943540</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
         <v>79.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>20.3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
         <v>563990</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>46</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>25943540</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
+        <v>25943540</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
